--- a/biology/Botanique/Indice_de_surface_foliaire/Indice_de_surface_foliaire.xlsx
+++ b/biology/Botanique/Indice_de_surface_foliaire/Indice_de_surface_foliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’indice foliaire, ou indice de surface foliaire (LAI, en anglais Leaf Area Index), est une grandeur sans dimension qui exprime la surface foliaire d’un arbre, d’un peuplement, d’un écosystème ou d’un biome par unité de surface de sol. Il est déterminé par l'estimation de la surface supérieure de l'intégralité des feuilles d'une plante ou d'un peuplement végétal divisée par la surface de sol que couvre cette plante ou ce peuplement[1]. Dans les forêts européennes, cet indice peut varier de 2 dans les pinèdes à plus de 10 dans des plantations de résineux denses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’indice foliaire, ou indice de surface foliaire (LAI, en anglais Leaf Area Index), est une grandeur sans dimension qui exprime la surface foliaire d’un arbre, d’un peuplement, d’un écosystème ou d’un biome par unité de surface de sol. Il est déterminé par l'estimation de la surface supérieure de l'intégralité des feuilles d'une plante ou d'un peuplement végétal divisée par la surface de sol que couvre cette plante ou ce peuplement. Dans les forêts européennes, cet indice peut varier de 2 dans les pinèdes à plus de 10 dans des plantations de résineux denses.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Tendances et évolutions récentes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zhu et al. ont montré en 2016 que l'indice de surface foliaire (intégré à la saison de croissance) a augmenté sur 25 à 50 % de la surface végétale mondiale au cours de la période 1982 à 2009. Dans le même temps, il n'a diminué que sur 4 % des terres émergées.
-Cette croissance récemment accélérée des végétaux est due à une « fertilisation » de la biosphère par le dioxyde de carbone (expliquant 70 % de cette tendance), et secondairement aux dépôts accrus d'azote eutrophisant (9 %), au changement climatique (8 %) et au changement d'occupation du sol (4 %)[2].
+Cette croissance récemment accélérée des végétaux est due à une « fertilisation » de la biosphère par le dioxyde de carbone (expliquant 70 % de cette tendance), et secondairement aux dépôts accrus d'azote eutrophisant (9 %), au changement climatique (8 %) et au changement d'occupation du sol (4 %).
 </t>
         </is>
       </c>
